--- a/notebooks/single_cohorts/input/PLCB4_individuals.xlsx
+++ b/notebooks/single_cohorts/input/PLCB4_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/single_cohorts/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A5251-1C9A-2341-A053-81F5765C8337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF5713-BD71-2940-AADC-C40BCFA7E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="3660" windowWidth="26840" windowHeight="15940" xr2:uid="{23DE4EFE-3E7B-8A49-B05A-D92B7445EB09}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
